--- a/omari_relap.xlsx
+++ b/omari_relap.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.22521582362975</v>
+        <v>19.10618618800344</v>
       </c>
       <c r="C2">
-        <v>0.00646725497652233</v>
+        <v>0.0485881989242378</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.25702041171114</v>
+        <v>19.92719279733022</v>
       </c>
       <c r="C3">
-        <v>0.04253325386329944</v>
+        <v>0.006168607584611716</v>
       </c>
     </row>
   </sheetData>
